--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/10/seed1/result_data_RandomForest.xlsx
@@ -496,19 +496,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.61800000000002</v>
+        <v>-21.57880000000002</v>
       </c>
       <c r="B4" t="n">
-        <v>5.256799999999993</v>
+        <v>5.296699999999996</v>
       </c>
       <c r="C4" t="n">
-        <v>-11.55729999999999</v>
+        <v>-11.42949999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>14.1913</v>
+        <v>13.974</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.1446</v>
+        <v>5.225399999999997</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.5256</v>
+        <v>-21.5406</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.029099999999997</v>
+        <v>5.047899999999999</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -587,7 +587,7 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.742</v>
+        <v>-11.74570000000001</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -644,7 +644,7 @@
         <v>-10.06</v>
       </c>
       <c r="E12" t="n">
-        <v>11.502</v>
+        <v>11.7043</v>
       </c>
     </row>
     <row r="13">
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.50390000000002</v>
+        <v>-21.52600000000002</v>
       </c>
       <c r="B16" t="n">
-        <v>4.855500000000003</v>
+        <v>4.838000000000004</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -740,7 +740,7 @@
         <v>5.81</v>
       </c>
       <c r="C18" t="n">
-        <v>-14.328</v>
+        <v>-14.34880000000001</v>
       </c>
       <c r="D18" t="n">
         <v>-8.869999999999999</v>
@@ -780,7 +780,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>12.98559999999999</v>
+        <v>13.14199999999999</v>
       </c>
     </row>
     <row r="21">
